--- a/TAP_POM_Framework/data/TC0034.xlsx
+++ b/TAP_POM_Framework/data/TC0034.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>uname</t>
   </si>
@@ -36,10 +36,13 @@
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>app_admin@ltts.com</t>
+  </si>
+  <si>
+    <t>Orderrow</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -395,7 +398,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -404,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
